--- a/plots/countries/plot data/European Union.xlsx
+++ b/plots/countries/plot data/European Union.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>483.221751689701</v>
+        <v>489.410584292112</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>736.351395226649</v>
+        <v>736.540403041271</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>169.011048987511</v>
+        <v>166.737015132188</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>721.407711310017</v>
+        <v>721.092331521561</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>1442.24689829692</v>
+        <v>1441.46607487716</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>672.03740810945</v>
+        <v>674.048651658911</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>450.352954885034</v>
+        <v>450.358700415381</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-217.432988261773</v>
+        <v>-237.330265764146</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>184.092133529103</v>
+        <v>185.361219492535</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>455.098112098592</v>
+        <v>462.095010937403</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>767.282891817472</v>
+        <v>767.463690750385</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>155.781043992041</v>
+        <v>153.684705574993</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>678.277576330383</v>
+        <v>677.954968512997</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>1409.71613785538</v>
+        <v>1409.00394681857</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>680.852295782</v>
+        <v>682.697411765214</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>418.961836027631</v>
+        <v>418.539601502286</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-316.93638536003</v>
+        <v>-321.597322747772</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>187.282255270418</v>
+        <v>188.319091483633</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>434.383748958565</v>
+        <v>440.852289509854</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>716.166811430341</v>
+        <v>716.357794150352</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>151.006043730049</v>
+        <v>149.239902837794</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>639.581988484159</v>
+        <v>639.338237256481</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>1363.22285329649</v>
+        <v>1362.38050504426</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>702.853175729062</v>
+        <v>704.536629890902</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>405.845731684143</v>
+        <v>405.62515159814</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-289.43746047002</v>
+        <v>-293.873758621712</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>189.015103209618</v>
+        <v>189.857844002519</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>422.919653229365</v>
+        <v>429.561112444961</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>727.044783283291</v>
+        <v>727.188645454014</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>150.140066164082</v>
+        <v>148.399588900527</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>619.343911406015</v>
+        <v>619.08713509068</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>1311.75191718182</v>
+        <v>1310.95187235553</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>706.228583572184</v>
+        <v>707.943272613751</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>395.795868745803</v>
+        <v>395.591134120094</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-303.214130743254</v>
+        <v>-309.090249103626</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>188.824510841146</v>
+        <v>189.625617906957</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>417.601246169486</v>
+        <v>423.864370999325</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>682.19219938968</v>
+        <v>682.402504961626</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>145.972942576175</v>
+        <v>144.373978902272</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>617.414610562609</v>
+        <v>617.144076353956</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>1318.36499655886</v>
+        <v>1317.57006430333</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>711.667168256834</v>
+        <v>713.253969080644</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>419.330863661688</v>
+        <v>419.11348605698</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-293.885805796646</v>
+        <v>-302.205216813267</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>187.593323485146</v>
+        <v>188.431302556818</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>417.485819453865</v>
+        <v>424.323011936528</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>688.767419689176</v>
+        <v>689.039467152044</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>145.261251884739</v>
+        <v>143.743839524439</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>638.255888370711</v>
+        <v>638.03244747884</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>1319.04495528041</v>
+        <v>1318.21183013524</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>724.549377092736</v>
+        <v>726.08612771092</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>430.554603277379</v>
+        <v>430.128176688222</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-317.420633130318</v>
+        <v>-315.728968900392</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>186.935129112716</v>
+        <v>187.663167223097</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>418.660210768095</v>
+        <v>425.374301143835</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>742.61955974442</v>
+        <v>742.838955507287</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>141.284995931148</v>
+        <v>139.659995887154</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>629.649963013254</v>
+        <v>629.396522188311</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>1347.69267434841</v>
+        <v>1346.93457331203</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>746.584314398898</v>
+        <v>748.086865779069</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>429.867622293922</v>
+        <v>429.392127089738</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-345.249685433919</v>
+        <v>-337.78620249161</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>185.520662821897</v>
+        <v>186.204688511195</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>416.541158382796</v>
+        <v>422.639393326922</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>701.263538465563</v>
+        <v>701.56831971662</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>145.991987209193</v>
+        <v>144.471362214857</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>620.521471021604</v>
+        <v>620.305447279086</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>1312.90892766687</v>
+        <v>1312.10354141346</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>756.319051578984</v>
+        <v>757.762152205196</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>434.668460809086</v>
+        <v>434.175283522479</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-337.833015132202</v>
+        <v>-335.916484137008</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>182.556452304533</v>
+        <v>183.143461299582</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>414.337084403303</v>
+        <v>419.663971064745</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>685.436304477998</v>
+        <v>685.763947477739</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>138.184486781723</v>
+        <v>136.854083196739</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>595.841491552214</v>
+        <v>595.569482881662</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>1316.02868028872</v>
+        <v>1315.19560199004</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>785.471284081276</v>
+        <v>786.736178726315</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>417.773558757064</v>
+        <v>417.240196841938</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-348.798057431875</v>
+        <v>-355.044074781094</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>178.947429073491</v>
+        <v>179.3686822654</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>411.903834981538</v>
+        <v>417.059818348367</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>672.417137927762</v>
+        <v>672.707224806405</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>136.352390068137</v>
+        <v>135.271136195724</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>580.718899581275</v>
+        <v>580.446122337311</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>1278.74027318161</v>
+        <v>1277.80743661066</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>802.204224987581</v>
+        <v>803.21008641193</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>399.055745330138</v>
+        <v>398.497661209443</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-361.543147803473</v>
+        <v>-359.760082514032</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>175.447355652875</v>
+        <v>175.856153541032</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>407.920099843897</v>
+        <v>413.100409748964</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>647.335161646291</v>
+        <v>647.602188043405</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>119.850307591466</v>
+        <v>118.56622590911</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>578.978977605646</v>
+        <v>578.579483989768</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>1304.80809608586</v>
+        <v>1303.80852826407</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>798.033219623123</v>
+        <v>799.280657567588</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>414.650624480152</v>
+        <v>414.123023785498</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-310.784821015695</v>
+        <v>-317.912215786524</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>174.071314829409</v>
+        <v>174.240306968618</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>406.214928059337</v>
+        <v>411.701414943381</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>688.893986763061</v>
+        <v>689.113404409516</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>116.199903551103</v>
+        <v>114.850662877939</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>567.43709879358</v>
+        <v>567.181980824712</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>1329.76780510757</v>
+        <v>1328.90305803365</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>812.148318612414</v>
+        <v>813.150550966365</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>402.344850880177</v>
+        <v>401.732623983786</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-358.451269700611</v>
+        <v>-353.137002908785</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>171.505452899418</v>
+        <v>171.639012666884</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>398.946383039181</v>
+        <v>404.270850877657</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>664.770950119705</v>
+        <v>664.974696165645</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>115.424291097848</v>
+        <v>114.14251507783</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>557.13219252939</v>
+        <v>556.929077940683</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>1352.48063982987</v>
+        <v>1351.35528798956</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>820.960568125067</v>
+        <v>821.91437718388</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>402.905429339715</v>
+        <v>402.310444041455</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-327.690629036938</v>
+        <v>-333.797541531998</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>168.086606523978</v>
+        <v>168.144678866276</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>393.7686935744</v>
+        <v>398.009515297024</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>673.870800219631</v>
+        <v>673.99797761027</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>115.499881429376</v>
+        <v>114.196766237415</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>563.486403581879</v>
+        <v>561.972397269823</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>1402.56777417683</v>
+        <v>1403.03630651273</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>827.824921958508</v>
+        <v>829.196203656716</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>413.507743718787</v>
+        <v>412.777059893148</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-316.087690095777</v>
+        <v>-304.094499169922</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>165.480157209898</v>
+        <v>165.47752532476</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>391.393313349084</v>
+        <v>396.295718090807</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>672.875965393848</v>
+        <v>672.973693326855</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>107.290675623707</v>
+        <v>106.023536629806</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>555.854561375589</v>
+        <v>554.469276723823</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>1395.30516266929</v>
+        <v>1395.90117060308</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>841.052306106195</v>
+        <v>842.07536496912</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>430.135410443351</v>
+        <v>429.325230384859</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-352.571241450567</v>
+        <v>-346.358637732148</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>159.988890346368</v>
+        <v>160.169252714401</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>386.815484993236</v>
+        <v>391.641937598039</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>680.853950932083</v>
+        <v>680.922738610505</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>106.256964449511</v>
+        <v>104.946258991662</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>551.124732397917</v>
+        <v>549.480830745523</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>1384.29607176987</v>
+        <v>1385.25986291513</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>843.23394580277</v>
+        <v>844.159238046298</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>429.910994986799</v>
+        <v>429.037331604854</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-348.244811108967</v>
+        <v>-347.161140017281</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>154.68664582098</v>
+        <v>155.124922530668</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>384.53753229529</v>
+        <v>388.981659990846</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>676.548721758096</v>
+        <v>676.643714736697</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>103.621363329116</v>
+        <v>102.263467164725</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>539.509206726492</v>
+        <v>538.126396498307</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>1392.02176012651</v>
+        <v>1392.87256426837</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>860.052049942998</v>
+        <v>860.938750268068</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>433.479321100309</v>
+        <v>432.545696765999</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-353.418203589364</v>
+        <v>-360.227184809349</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>151.061943346845</v>
+        <v>151.650196019555</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>387.542299006497</v>
+        <v>392.21629101337</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>596.855998808177</v>
+        <v>596.906364248272</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>98.7897303062847</v>
+        <v>97.4264686617526</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>549.1725575913</v>
+        <v>547.873849574513</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>1403.58358507405</v>
+        <v>1403.91276550065</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>863.477594547422</v>
+        <v>864.309436847847</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>445.368773126704</v>
+        <v>444.416578067539</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-303.934034407653</v>
+        <v>-324.368014272637</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>146.847571490144</v>
+        <v>147.702132619021</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>385.23114224459</v>
+        <v>389.71879278424</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>641.362637207512</v>
+        <v>641.473310064211</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>97.2074566470743</v>
+        <v>95.8988065540783</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>530.629418228589</v>
+        <v>528.855355989451</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>1336.9752490576</v>
+        <v>1338.17584789822</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>849.565090916142</v>
+        <v>850.681317422137</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>420.599821410084</v>
+        <v>419.557619532053</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-352.3500578936</v>
+        <v>-357.677055601979</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>142.189589759542</v>
+        <v>143.369754961052</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>379.860505476432</v>
+        <v>385.048347309828</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>628.805986485587</v>
+        <v>629.055084838849</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>89.8853589933733</v>
+        <v>88.6561345002288</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>439.148802536195</v>
+        <v>437.416590175281</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>1237.62418830542</v>
+        <v>1238.90073533671</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>823.107276756554</v>
+        <v>824.205015179978</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>347.980406807124</v>
+        <v>346.93797163041</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-349.322698415422</v>
+        <v>-346.738626453926</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>139.669759954082</v>
+        <v>140.994986903152</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>374.794128197861</v>
+        <v>380.563217420118</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>659.670351467136</v>
+        <v>660.033114000601</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>89.3424839594138</v>
+        <v>88.1668997159961</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>470.931029698819</v>
+        <v>469.530375661499</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>1255.36166669635</v>
+        <v>1256.49790454443</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>814.963862635881</v>
+        <v>816.125037752261</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>364.57485540424</v>
+        <v>363.49089496991</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-351.293001320465</v>
+        <v>-345.955319686737</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>136.129127958902</v>
+        <v>137.528421630879</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>373.857159787007</v>
+        <v>378.544667918286</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>587.986355375513</v>
+        <v>587.98307308218</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>88.6736632982823</v>
+        <v>87.3874350117584</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>460.684848676897</v>
+        <v>460.089583140578</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>1244.73049540078</v>
+        <v>1245.44834692574</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>805.635686392615</v>
+        <v>806.807066167027</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>364.212075673708</v>
+        <v>363.074015477771</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-344.957099624295</v>
+        <v>-347.209048172515</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>131.642853837466</v>
+        <v>132.935049283044</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>373.6577763372</v>
+        <v>377.86271659569</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>597.927220267312</v>
+        <v>599.408303282182</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>87.8335899965752</v>
+        <v>86.637467604624</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>443.9709726642</v>
+        <v>443.298656715531</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>1229.18900799046</v>
+        <v>1229.48358402495</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>775.841102413541</v>
+        <v>777.032511006707</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>348.972553201595</v>
+        <v>347.854007013575</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-339.410876886229</v>
+        <v>-338.325081519068</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>128.708577887503</v>
+        <v>130.099554625702</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>375.965840339683</v>
+        <v>380.650089795894</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>601.443772672391</v>
+        <v>602.741598938741</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>86.5885035449271</v>
+        <v>85.5118843375567</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>424.378981554327</v>
+        <v>425.948199101903</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>1162.53661922839</v>
+        <v>1167.50691102986</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>769.855913623988</v>
+        <v>770.974826802541</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>345.550988537129</v>
+        <v>344.674769974488</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-347.57962698762</v>
+        <v>-347.349524860989</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>122.406829953965</v>
+        <v>124.493160660182</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>380.480906226347</v>
+        <v>385.478668200228</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>527.684344140346</v>
+        <v>528.512412798217</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>83.6714924280861</v>
+        <v>82.653941900441</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>410.218874945335</v>
+        <v>410.71327612155</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>1102.67110679546</v>
+        <v>1106.82948137524</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>773.071207463553</v>
+        <v>774.24789804691</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>352.208486909486</v>
+        <v>351.573774433979</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-331.760287770837</v>
+        <v>-329.37136878286</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>118.184533626942</v>
+        <v>120.382233639894</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>382.745282173956</v>
+        <v>385.88284356058</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>551.462361877325</v>
+        <v>552.069633452121</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>82.3186662824074</v>
+        <v>82.1440224142583</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>420.181963574159</v>
+        <v>419.024748130811</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>1113.67295646571</v>
+        <v>1115.06745196789</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>793.172372072876</v>
+        <v>794.325840947248</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>342.045167511394</v>
+        <v>342.214249091247</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-324.563426954873</v>
+        <v>-318.683456917739</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>116.519671955003</v>
+        <v>118.662535924359</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>384.906722894893</v>
+        <v>388.732962853285</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>551.905073691927</v>
+        <v>553.170097627297</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>79.1801633311559</v>
+        <v>78.7939647521221</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>422.768501346381</v>
+        <v>423.116447828098</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>1088.81232789762</v>
+        <v>1090.35377696599</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>809.65638812927</v>
+        <v>810.99011747918</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>344.368186804124</v>
+        <v>344.610149528305</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-318.95045904068</v>
+        <v>-317.911534695145</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>114.203795823477</v>
+        <v>116.179037690071</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>386.106727975064</v>
+        <v>389.328097646905</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>551.560111484888</v>
+        <v>552.851393391716</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>78.4159104440118</v>
+        <v>78.1215892356608</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>430.403335185851</v>
+        <v>430.788376036615</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>1084.73081928996</v>
+        <v>1086.36856641694</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>822.50253996359</v>
+        <v>823.560676084579</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>350.744282875058</v>
+        <v>351.143440986489</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-248.35301230261</v>
+        <v>-266.000012825239</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>113.130696417977</v>
+        <v>114.976157813211</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>383.666185317156</v>
+        <v>385.999360206354</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>541.078350931182</v>
+        <v>542.419838644457</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>74.7450257977232</v>
+        <v>74.5762841361324</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>429.323026975416</v>
+        <v>429.904735174432</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>1024.33985671452</v>
+        <v>1024.27496453862</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>829.91774239385</v>
+        <v>830.910131110221</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>343.646894923705</v>
+        <v>344.107603847958</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-256.099411551249</v>
+        <v>-203.135020302472</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>112.098245800662</v>
+        <v>113.802556447351</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>378.414766862414</v>
+        <v>381.841676529623</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>531.777422377712</v>
+        <v>533.239925715524</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>68.3996133907404</v>
+        <v>68.0545452806243</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>417.148658792787</v>
+        <v>417.86995094945</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>902.660884497684</v>
+        <v>905.025783342532</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>833.084301387974</v>
+        <v>834.192380356482</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>330.527551484925</v>
+        <v>331.190392546194</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-241.006946463544</v>
+        <v>-192.34371694476</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>110.915892750847</v>
+        <v>113.066238404644</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>379.870360964407</v>
+        <v>383.832754445856</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>527.433317872129</v>
+        <v>528.574106851231</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>63.319141284628</v>
+        <v>63.022360181863</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>397.449424367486</v>
+        <v>398.076773788516</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>776.293696185717</v>
+        <v>778.326362654662</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>721.008471462227</v>
+        <v>722.009005101062</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>306.12105810653</v>
+        <v>307.425753744074</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-240.798640738239</v>
+        <v>-193.839009161449</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>109.993837410004</v>
+        <v>112.105876003007</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>375.996119323242</v>
+        <v>380.35390829276</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>539.303338440601</v>
+        <v>541.259510765237</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>61.2968887245928</v>
+        <v>60.5997176872018</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>428.714908924577</v>
+        <v>427.517734186429</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>841.116652800361</v>
+        <v>841.718441945311</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>779.113846769854</v>
+        <v>780.353184847297</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>317.957064454351</v>
+        <v>317.82670350713</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-240.90877461019</v>
+        <v>-195.992516231961</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>108.967416405807</v>
+        <v>111.599365493044</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>365.71903580636</v>
+        <v>367.674315286095</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>480.954258573343</v>
+        <v>482.684055986057</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>59.3222528372349</v>
+        <v>58.4182017568173</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>394.766052277777</v>
+        <v>391.71077758019</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>863.40184458836</v>
+        <v>866.756202069458</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>803.627198260287</v>
+        <v>804.303377400933</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>289.162440542769</v>
+        <v>290.290300840378</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-236.418982941284</v>
+        <v>-183.298679415964</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,7 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>107.970668189331</v>
+        <v>110.46347526073</v>
       </c>
     </row>
   </sheetData>

--- a/plots/countries/plot data/European Union.xlsx
+++ b/plots/countries/plot data/European Union.xlsx
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>721.092331521561</v>
+        <v>721.094000677073</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>674.048651658911</v>
+        <v>674.049783481218</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>450.358700415381</v>
+        <v>450.358691151924</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-237.330265764146</v>
+        <v>-237.322973891488</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>185.361219492535</v>
+        <v>185.214411289176</v>
       </c>
     </row>
     <row r="11">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>677.954968512997</v>
+        <v>677.956893524463</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>682.697411765214</v>
+        <v>682.697440407769</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>418.539601502286</v>
+        <v>418.539588480234</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-321.597322747772</v>
+        <v>-321.560517372222</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>188.319091483633</v>
+        <v>188.174614864691</v>
       </c>
     </row>
     <row r="20">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>639.338237256481</v>
+        <v>639.340348503234</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>704.536629890902</v>
+        <v>704.536104286062</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>405.62515159814</v>
+        <v>405.625154587938</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-293.873758621712</v>
+        <v>-293.840824698338</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>189.857844002519</v>
+        <v>189.716687113706</v>
       </c>
     </row>
     <row r="29">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>619.08713509068</v>
+        <v>619.089537003721</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>707.943272613751</v>
+        <v>707.9410004241</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>395.591134120094</v>
+        <v>395.591137757566</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-309.090249103626</v>
+        <v>-309.078185365646</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>189.625617906957</v>
+        <v>189.486340082223</v>
       </c>
     </row>
     <row r="38">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>617.144076353956</v>
+        <v>617.146455060108</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>713.253969080644</v>
+        <v>713.249218326119</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>419.11348605698</v>
+        <v>419.113529040165</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-302.205216813267</v>
+        <v>-302.19248314569</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>188.431302556818</v>
+        <v>188.293416239488</v>
       </c>
     </row>
     <row r="47">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>638.03244747884</v>
+        <v>638.035076239225</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>726.08612771092</v>
+        <v>726.078876124227</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>430.128176688222</v>
+        <v>430.128007126123</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-315.728968900392</v>
+        <v>-315.715823056278</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>187.663167223097</v>
+        <v>187.527797305134</v>
       </c>
     </row>
     <row r="56">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>629.396522188311</v>
+        <v>629.399104534917</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>748.086865779069</v>
+        <v>748.077737538595</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>429.392127089738</v>
+        <v>429.392197104412</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-337.78620249161</v>
+        <v>-337.767325643028</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>186.204688511195</v>
+        <v>186.072342848862</v>
       </c>
     </row>
     <row r="65">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>620.305447279086</v>
+        <v>620.308302886813</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>757.762152205196</v>
+        <v>757.750407107012</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>434.175283522479</v>
+        <v>434.169212176128</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-335.916484137008</v>
+        <v>-335.902438597637</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>183.143461299582</v>
+        <v>183.015557849194</v>
       </c>
     </row>
     <row r="74">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>595.569482881662</v>
+        <v>595.572594345344</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>786.736178726315</v>
+        <v>786.722380541126</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>417.240196841938</v>
+        <v>417.23779987559</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-355.044074781094</v>
+        <v>-355.020555962851</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>179.3686822654</v>
+        <v>179.250427147653</v>
       </c>
     </row>
     <row r="83">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>580.446122337311</v>
+        <v>580.449204792381</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>803.21008641193</v>
+        <v>803.193061549014</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>398.497661209443</v>
+        <v>398.477003846976</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-359.760082514032</v>
+        <v>-359.713891574749</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>175.856153541032</v>
+        <v>175.744732202892</v>
       </c>
     </row>
     <row r="92">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>578.579483989768</v>
+        <v>578.582531634505</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>799.280657567588</v>
+        <v>799.26416263798</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>414.123023785498</v>
+        <v>414.117014390785</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-317.912215786524</v>
+        <v>-317.875600082378</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>174.240306968618</v>
+        <v>174.144395277561</v>
       </c>
     </row>
     <row r="101">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>567.181980824712</v>
+        <v>567.184229671339</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>813.150550966365</v>
+        <v>813.130469880657</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>401.732623983786</v>
+        <v>401.735770789521</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-353.137002908785</v>
+        <v>-353.094781447239</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>171.639012666884</v>
+        <v>171.551685268712</v>
       </c>
     </row>
     <row r="110">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>556.929077940683</v>
+        <v>556.932160395753</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>821.91437718388</v>
+        <v>821.89209732542</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>402.310444041455</v>
+        <v>402.320354216914</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-333.797541531998</v>
+        <v>-333.747971978548</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>168.144678866276</v>
+        <v>168.081088121143</v>
       </c>
     </row>
     <row r="119">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>561.972397269823</v>
+        <v>561.974528324978</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>829.196203656716</v>
+        <v>829.171878396428</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>412.777059893148</v>
+        <v>412.791944052317</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-304.094499169922</v>
+        <v>-304.052146722583</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>165.47752532476</v>
+        <v>165.4642269682</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>396.295718090807</v>
+        <v>396.295566718234</v>
       </c>
     </row>
     <row r="129">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>554.469276723823</v>
+        <v>554.467754742599</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>842.07536496912</v>
+        <v>842.073871177428</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>429.325230384859</v>
+        <v>429.347705935973</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-346.358637732148</v>
+        <v>-346.321632234437</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>160.169252714401</v>
+        <v>160.177345288511</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>391.641937598039</v>
+        <v>391.641793987005</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>104.946258991662</v>
+        <v>104.947198867662</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>549.480830745523</v>
+        <v>549.472283855066</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>844.159238046298</v>
+        <v>844.157464456431</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>429.037331604854</v>
+        <v>429.069213477722</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-347.161140017281</v>
+        <v>-347.122150338227</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>155.124922530668</v>
+        <v>155.208796080451</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>388.981659990846</v>
+        <v>388.981478458841</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>676.643714736697</v>
+        <v>676.643667436697</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>102.263467164725</v>
+        <v>102.264221316725</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>538.126396498307</v>
+        <v>538.122046494779</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>860.938750268068</v>
+        <v>860.936894578347</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>432.545696765999</v>
+        <v>432.590878764407</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-360.227184809349</v>
+        <v>-360.180917073107</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>151.650196019555</v>
+        <v>151.754707033199</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>392.21629101337</v>
+        <v>392.215937264851</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>97.4264686617526</v>
+        <v>97.4268626217526</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>547.873849574513</v>
+        <v>547.842539800656</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>864.309436847847</v>
+        <v>864.307940811838</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>444.416578067539</v>
+        <v>444.485011399731</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-324.368014272637</v>
+        <v>-324.315964528943</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>147.702132619021</v>
+        <v>147.827388160856</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>389.71879278424</v>
+        <v>389.718099381324</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>641.473310064211</v>
+        <v>641.473319524211</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>95.8988065540783</v>
+        <v>95.8992399100783</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>528.855355989451</v>
+        <v>528.82769159298</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>850.681317422137</v>
+        <v>850.67979843271</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>419.557619532053</v>
+        <v>419.641327744404</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-357.677055601979</v>
+        <v>-357.635665809428</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>143.369754961052</v>
+        <v>143.498962912066</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>385.048347309828</v>
+        <v>385.047300661222</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>629.055084838849</v>
+        <v>629.055104869349</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>88.6561345002288</v>
+        <v>88.6564271562288</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>437.416590175281</v>
+        <v>437.381440758809</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>824.205015179978</v>
+        <v>824.201034634502</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>346.93797163041</v>
+        <v>347.05692165077</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-346.738626453926</v>
+        <v>-346.685019620008</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>140.994986903152</v>
+        <v>141.113303757468</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>380.563217420118</v>
+        <v>380.561932935581</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>660.033114000601</v>
+        <v>660.033120015101</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>88.1668997159961</v>
+        <v>88.1674517273998</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>469.530375661499</v>
+        <v>469.500524365799</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>816.125037752261</v>
+        <v>816.120071810913</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>363.49089496991</v>
+        <v>363.634414176957</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-345.955319686737</v>
+        <v>-345.796525570827</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>137.528421630879</v>
+        <v>137.682228090808</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>378.544667918286</v>
+        <v>378.542739413464</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>587.98307308218</v>
+        <v>587.983076744781</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>87.3874350117584</v>
+        <v>87.3879437519357</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>460.089583140578</v>
+        <v>460.094285921492</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>806.807066167027</v>
+        <v>806.801698921969</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>363.074015477771</v>
+        <v>363.237929866404</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-347.209048172515</v>
+        <v>-347.161476937147</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>132.935049283044</v>
+        <v>133.088310087781</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>377.86271659569</v>
+        <v>377.861123829673</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>599.408303282182</v>
+        <v>599.408309614382</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>86.637467604624</v>
+        <v>86.6379700156889</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>443.298656715531</v>
+        <v>443.298539915531</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>777.032511006707</v>
+        <v>777.027717053772</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>347.854007013575</v>
+        <v>348.047329157317</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-338.325081519068</v>
+        <v>-338.249746376645</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>130.099554625702</v>
+        <v>130.269073994846</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>380.650089795894</v>
+        <v>380.647073201951</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>602.741598938741</v>
+        <v>602.741602482141</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>85.5118843375567</v>
+        <v>85.5124881694398</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>425.948199101903</v>
+        <v>425.948100801903</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>770.974826802541</v>
+        <v>770.967506215767</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>344.674769974488</v>
+        <v>344.869000328894</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-347.349524860989</v>
+        <v>-347.315246629343</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>124.493160660182</v>
+        <v>124.666121374244</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>385.478668200228</v>
+        <v>385.475701916976</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>528.512412798217</v>
+        <v>528.512413420417</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>82.653941900441</v>
+        <v>82.6541231030292</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>410.71327612155</v>
+        <v>410.69684462155</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>774.24789804691</v>
+        <v>774.240312891105</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>351.573774433979</v>
+        <v>351.735884933785</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-329.37136878286</v>
+        <v>-329.339532025786</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>120.382233639894</v>
+        <v>120.580505887709</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>385.88284356058</v>
+        <v>385.879949088455</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>552.069633452121</v>
+        <v>552.069648025921</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>82.1440224142583</v>
+        <v>82.1448017746292</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>419.024748130811</v>
+        <v>419.014118430811</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>794.325840947248</v>
+        <v>794.312419995508</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>342.214249091247</v>
+        <v>342.338994935452</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-318.683456917739</v>
+        <v>-318.661649734596</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>118.662535924359</v>
+        <v>118.870117248747</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>388.732962853285</v>
+        <v>388.730077299858</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>553.170097627297</v>
+        <v>553.170111421597</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>78.7939647521221</v>
+        <v>78.7942214168139</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>423.116447828098</v>
+        <v>423.113735028098</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>810.99011747918</v>
+        <v>810.982523270952</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>344.610149528305</v>
+        <v>344.796440337157</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-317.911534695145</v>
+        <v>-317.904095912888</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>116.179037690071</v>
+        <v>116.428050561276</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>389.328097646905</v>
+        <v>389.326256894487</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>552.851393391716</v>
+        <v>552.851417739781</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>78.1215892356608</v>
+        <v>78.1220734005478</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>430.788376036615</v>
+        <v>430.785806106281</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>823.560676084579</v>
+        <v>823.550305860397</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>351.143440986489</v>
+        <v>351.161047655999</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-266.000012825239</v>
+        <v>-265.969899249458</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>114.976157813211</v>
+        <v>115.220374569508</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>385.999360206354</v>
+        <v>385.997769940981</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>542.419838644457</v>
+        <v>542.41945671057</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>74.5762841361324</v>
+        <v>74.5766047389037</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>429.904735174432</v>
+        <v>429.895596195473</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>830.910131110221</v>
+        <v>830.887893852936</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>344.107603847958</v>
+        <v>344.128600419853</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-203.135020302472</v>
+        <v>-203.127864604114</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>113.802556447351</v>
+        <v>114.05859220902</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>381.841676529623</v>
+        <v>381.840334659238</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>533.239925715524</v>
+        <v>533.23940100902</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>68.0545452806243</v>
+        <v>68.0548588829534</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>417.86995094945</v>
+        <v>417.857488392976</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>834.192380356482</v>
+        <v>834.174659785191</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>331.190392546194</v>
+        <v>331.223111397478</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-192.34371694476</v>
+        <v>-192.338038944958</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>113.066238404644</v>
+        <v>113.329026242161</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>383.832754445856</v>
+        <v>383.831668410949</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>528.574106851231</v>
+        <v>528.573571543473</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>63.022360181863</v>
+        <v>63.0227535382982</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>398.076773788516</v>
+        <v>398.06098760649</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>722.009005101062</v>
+        <v>721.996316858951</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>307.425753744074</v>
+        <v>307.44230415701</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-193.839009161449</v>
+        <v>-193.822906105345</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>112.105876003007</v>
+        <v>112.352189760425</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>380.35390829276</v>
+        <v>380.35861931494</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>541.259510765237</v>
+        <v>541.259012082353</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>60.5997176872018</v>
+        <v>60.6166443087042</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>427.517734186429</v>
+        <v>427.500878835114</v>
       </c>
     </row>
     <row r="285">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>780.353184847297</v>
+        <v>780.229771564662</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>317.82670350713</v>
+        <v>317.84912517623</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-195.992516231961</v>
+        <v>-195.981668788275</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>111.599365493044</v>
+        <v>111.839806685866</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>367.674315286095</v>
+        <v>367.642649004959</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>482.684055986057</v>
+        <v>482.693534888307</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>58.4182017568173</v>
+        <v>58.3682614876062</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>391.71077758019</v>
+        <v>391.686995265222</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>866.756202069458</v>
+        <v>866.749226511458</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>804.303377400933</v>
+        <v>804.259719298194</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>290.290300840378</v>
+        <v>290.339771634314</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-183.298679415964</v>
+        <v>-183.285074222177</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>110.46347526073</v>
+        <v>110.711641054929</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>362.754278540607</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>447.909986064282</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>53.5434628707457</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>357.763004643968</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>693.152751851371</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>786.658248608646</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>257.491178055361</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-190.645235325552</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>107.213113546179</v>
       </c>
     </row>
   </sheetData>
